--- a/source_test_data.xlsx
+++ b/source_test_data.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -596,11 +594,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -609,86 +605,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1">
-        <v>4</v>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -707,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
@@ -724,23 +706,27 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -763,46 +749,42 @@
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
@@ -823,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -835,34 +817,38 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -879,27 +865,27 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -907,19 +893,23 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -941,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
@@ -950,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>29</v>
@@ -959,7 +949,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -967,34 +957,38 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1013,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>19</v>
@@ -1022,51 +1016,12 @@
         <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1075,30 +1030,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>